--- a/fw-ig/core-ig-r401/branch/main/ValueSet-observation-categories.xlsx
+++ b/fw-ig/core-ig-r401/branch/main/ValueSet-observation-categories.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:42:27+00:00</t>
+    <t>2022-09-07T18:21:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
